--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1662.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1662.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.331785031673486</v>
+        <v>3.080499649047852</v>
       </c>
       <c r="B1">
-        <v>3.125905475791584</v>
+        <v>2.387287139892578</v>
       </c>
       <c r="C1">
-        <v>2.640087667885402</v>
+        <v>2.045372247695923</v>
       </c>
       <c r="D1">
-        <v>2.199066750885209</v>
+        <v>2.162761688232422</v>
       </c>
       <c r="E1">
-        <v>1.486175964056718</v>
+        <v>2.568912506103516</v>
       </c>
     </row>
   </sheetData>
